--- a/backend/src/data/export (1.xlsx
+++ b/backend/src/data/export (1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04bc7efa1818b7b3/Bureau/taxacall/backend/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7A3490-DD89-4BA1-AC48-131863E0E83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{2F7A3490-DD89-4BA1-AC48-131863E0E83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F103B4D1-AB09-40C8-B68D-8B169061F03A}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F51A74C6-5835-4E1C-BA76-91712F83DDCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F51A74C6-5835-4E1C-BA76-91712F83DDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>Poste</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>Fonction</t>
-  </si>
-  <si>
     <t>Mail</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t xml:space="preserve">812112    </t>
   </si>
   <si>
-    <t xml:space="preserve">SAID MAHJOUBI                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                            </t>
   </si>
   <si>
@@ -78,129 +72,66 @@
     <t xml:space="preserve">812115    </t>
   </si>
   <si>
-    <t xml:space="preserve">SAMI MEJRI                                                                                          </t>
-  </si>
-  <si>
     <t xml:space="preserve">812116    </t>
   </si>
   <si>
-    <t xml:space="preserve">AHMED BEN SALAH                                                                                     </t>
-  </si>
-  <si>
     <t xml:space="preserve">812117    </t>
   </si>
   <si>
-    <t xml:space="preserve">MAHASSEN DAGDOUG                                                                                    </t>
-  </si>
-  <si>
     <t xml:space="preserve">812120    </t>
   </si>
   <si>
-    <t xml:space="preserve">NOUREDDINE JAMMALI                                                                                  </t>
-  </si>
-  <si>
     <t xml:space="preserve">812122    </t>
   </si>
   <si>
-    <t xml:space="preserve">NIZAR YANGUI                                                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">812123    </t>
   </si>
   <si>
-    <t xml:space="preserve">RIDHA KHALFOUN                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">812125    </t>
   </si>
   <si>
-    <t xml:space="preserve">FATHI ICHAOUI                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">812127    </t>
   </si>
   <si>
-    <t xml:space="preserve">FATMA GUIDARA                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">812130    </t>
   </si>
   <si>
-    <t xml:space="preserve">MAHDI ZAABES                                                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">812131    </t>
   </si>
   <si>
-    <t xml:space="preserve">NARJESS GHORBEL                                                                                     </t>
-  </si>
-  <si>
     <t xml:space="preserve">812132    </t>
   </si>
   <si>
-    <t xml:space="preserve">MONIA FERIANI                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">812134    </t>
   </si>
   <si>
-    <t xml:space="preserve">THAMEUR AMMAR                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">812137    </t>
   </si>
   <si>
-    <t xml:space="preserve">HAZAR KCHOU                                                                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">812139    </t>
   </si>
   <si>
-    <t xml:space="preserve">MOUNA ELLOUZE                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">812142    </t>
   </si>
   <si>
-    <t xml:space="preserve">MOHAMED ALI KOUBAA                                                                                  </t>
-  </si>
-  <si>
     <t xml:space="preserve">812144    </t>
   </si>
   <si>
-    <t xml:space="preserve">MOHAMED DAMMAK                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">812148    </t>
   </si>
   <si>
-    <t xml:space="preserve">NAJET SAADAOUI                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">812150    </t>
   </si>
   <si>
-    <t xml:space="preserve">SONIA CHAKROUN                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">812152    </t>
   </si>
   <si>
-    <t xml:space="preserve">SAMIR KCHAOU                                                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">812153    </t>
   </si>
   <si>
-    <t xml:space="preserve">NABIL BOUAZIZ                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">812154    </t>
   </si>
   <si>
-    <t xml:space="preserve">SAMI KOSSENTINI                                                                                     </t>
-  </si>
-  <si>
     <t xml:space="preserve">812155    </t>
   </si>
   <si>
@@ -210,37 +141,187 @@
     <t xml:space="preserve">812156    </t>
   </si>
   <si>
-    <t xml:space="preserve">ALI SLIMENE BEN BRAIIEK                                                                             </t>
-  </si>
-  <si>
     <t xml:space="preserve">812157    </t>
   </si>
   <si>
-    <t xml:space="preserve">MANSOUR BEN AOUICHA                                                                                 </t>
-  </si>
-  <si>
     <t xml:space="preserve">812158    </t>
   </si>
   <si>
-    <t xml:space="preserve">ZIED GHRIBI                                                                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">812159    </t>
   </si>
   <si>
-    <t xml:space="preserve">OUMAIMA BARRAK                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">812160    </t>
   </si>
   <si>
-    <t xml:space="preserve">AYMEN FENDRI                                                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">812161    </t>
   </si>
   <si>
-    <t xml:space="preserve">AYMEN BOUAZIZ                                                                                       </t>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAID                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHJOUBI  </t>
+  </si>
+  <si>
+    <t>BEN SALAH</t>
+  </si>
+  <si>
+    <t>MEJRI</t>
+  </si>
+  <si>
+    <t>DAGDOUG</t>
+  </si>
+  <si>
+    <t>JAMMALI</t>
+  </si>
+  <si>
+    <t>YANGUI</t>
+  </si>
+  <si>
+    <t>KHALFOUN</t>
+  </si>
+  <si>
+    <t>ICHAOUI</t>
+  </si>
+  <si>
+    <t>GUIDRA</t>
+  </si>
+  <si>
+    <t>ZAABES</t>
+  </si>
+  <si>
+    <t>GHORBEL</t>
+  </si>
+  <si>
+    <t>FERIANI</t>
+  </si>
+  <si>
+    <t>AMMAR</t>
+  </si>
+  <si>
+    <t>KCHOU</t>
+  </si>
+  <si>
+    <t>ELLOUZA</t>
+  </si>
+  <si>
+    <t>KOUBA</t>
+  </si>
+  <si>
+    <t>DAMMAK</t>
+  </si>
+  <si>
+    <t>SAADAOUI</t>
+  </si>
+  <si>
+    <t>CHAKROUN</t>
+  </si>
+  <si>
+    <t>KCHAOU</t>
+  </si>
+  <si>
+    <t>BOUAZIZ</t>
+  </si>
+  <si>
+    <t>KOSSENTINI</t>
+  </si>
+  <si>
+    <t>BEN BRAIIEK</t>
+  </si>
+  <si>
+    <t>AOUICHA</t>
+  </si>
+  <si>
+    <t>GHRIBI</t>
+  </si>
+  <si>
+    <t>BARRAK</t>
+  </si>
+  <si>
+    <t>FENDRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMI                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMED                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHASSEN                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUREDDINE                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIZAR                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIDHA                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATHI                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATMA                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHDI Z                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARJESS                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONIA                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAMEUR                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAZAR                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUNA                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHAMED ALI                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHAMED                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAJET                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONIA                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMIR                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABIL                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMI                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALI SLIMENE                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANSOUR                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIED                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUMAIMA                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYMEN                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYMEN                                                                           </t>
   </si>
 </sst>
 </file>
@@ -307,6 +388,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,7 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1227B82F-BB29-445D-BDCE-D0ED7987ED99}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,36 +738,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -689,21 +776,21 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -712,21 +799,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -734,22 +821,22 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
+      <c r="H4" s="2">
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -758,21 +845,21 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -781,21 +868,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -804,21 +891,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -826,22 +913,22 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
+      <c r="H8" s="2">
+        <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -850,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -873,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -896,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -919,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -942,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -965,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -988,21 +1075,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1011,21 +1098,21 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1034,21 +1121,21 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1056,22 +1143,22 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
+      <c r="H18" s="2">
+        <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1080,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1103,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1126,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1148,22 +1235,22 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>12</v>
+      <c r="H22" s="2">
+        <v>17</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1172,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1194,22 +1281,22 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>12</v>
+      <c r="H24" s="2">
+        <v>10</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1218,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1241,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1264,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1286,22 +1373,22 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
+      <c r="H28" s="2">
+        <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1310,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1333,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
